--- a/medicine/Sexualité et sexologie/Ma_femme_est_un_violon/Ma_femme_est_un_violon.xlsx
+++ b/medicine/Sexualité et sexologie/Ma_femme_est_un_violon/Ma_femme_est_un_violon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ma femme est un violon (titre original : Il merlo maschio) est un film italien réalisé par Pasquale Festa Campanile, sorti en 1971. 
 Le film est l'adaptation cinématographique de la nouvelle Il complesso di Loth parue en 1968 et écrite par Luciano Bianciardi, qui apparaît dans le film comme le violoncelliste Mazzacurati.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Niccolò Vivaldi, un violoncelliste frustré et las d'une existence confinée dans un anonymat étouffant, découvre que l'admiration suscitée par la beauté de sa femme, Costanza, rejaillit sur lui. Dès lors, il décide de l'exhiber en public afin d'en tirer une gloire personnelle.
 </t>
@@ -544,9 +558,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titre français : Ma femme est un violon ou Comment photographier sa femme pour faire plaisir aux amis[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Titre français : Ma femme est un violon ou Comment photographier sa femme pour faire plaisir aux amis
 Titre original italien : Il merlo maschio
 Réalisation : Pasquale Festa Campanile
 Scénario : Luciano Bianciardi,  Pasquale Festa Campanile
@@ -562,7 +578,7 @@
 Durée : 110 minutes
 Dates de sortie :
 Italie : 22 septembre 1971
-France : 6 décembre 1973[1]</t>
+France : 6 décembre 1973</t>
         </is>
       </c>
     </row>
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Laura Antonelli : Costanza Vivaldi
 Lando Buzzanca : Niccolò Vivaldi
